--- a/natmiOut/OldD7/LR-pairs_lrc2p/Osm-Lifr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Osm-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Osm</t>
   </si>
   <si>
     <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>15.4440249782477</v>
+        <v>0.01732733333333333</v>
       </c>
       <c r="H2">
-        <v>15.4440249782477</v>
+        <v>0.051982</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0009052090985651891</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0009052090985651891</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.6032189536465</v>
+        <v>31.44605333333334</v>
       </c>
       <c r="N2">
-        <v>29.6032189536465</v>
+        <v>94.33816</v>
       </c>
       <c r="O2">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="P2">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="Q2">
-        <v>457.1928529566523</v>
+        <v>0.5448762481244445</v>
       </c>
       <c r="R2">
-        <v>457.1928529566523</v>
+        <v>4.90388623312</v>
       </c>
       <c r="S2">
-        <v>0.2699907567509008</v>
+        <v>0.0002473105367841891</v>
       </c>
       <c r="T2">
-        <v>0.2699907567509008</v>
+        <v>0.0002473105367841891</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>15.4440249782477</v>
+        <v>0.01732733333333333</v>
       </c>
       <c r="H3">
-        <v>15.4440249782477</v>
+        <v>0.051982</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0009052090985651891</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0009052090985651891</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.4926296168998</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N3">
-        <v>57.4926296168998</v>
+        <v>173.401921</v>
       </c>
       <c r="O3">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974907</v>
       </c>
       <c r="P3">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974908</v>
       </c>
       <c r="Q3">
-        <v>887.917607868544</v>
+        <v>1.001530961935778</v>
       </c>
       <c r="R3">
-        <v>887.917607868544</v>
+        <v>9.013778657422</v>
       </c>
       <c r="S3">
-        <v>0.5243510377088226</v>
+        <v>0.0004545787427051741</v>
       </c>
       <c r="T3">
-        <v>0.5243510377088226</v>
+        <v>0.0004545787427051742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>15.4440249782477</v>
+        <v>0.01732733333333333</v>
       </c>
       <c r="H4">
-        <v>15.4440249782477</v>
+        <v>0.051982</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0009052090985651891</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.0009052090985651891</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.6959110653631</v>
+        <v>12.04190666666667</v>
       </c>
       <c r="N4">
-        <v>11.6959110653631</v>
+        <v>36.12572</v>
       </c>
       <c r="O4">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="P4">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="Q4">
-        <v>180.6319426368314</v>
+        <v>0.2086541307822223</v>
       </c>
       <c r="R4">
-        <v>180.6319426368314</v>
+        <v>1.87788717704</v>
       </c>
       <c r="S4">
-        <v>0.1066704227122451</v>
+        <v>9.4704743074439E-05</v>
       </c>
       <c r="T4">
-        <v>0.1066704227122451</v>
+        <v>9.4704743074439E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,805 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01732733333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.051982</v>
+      </c>
+      <c r="I5">
+        <v>0.0009052090985651891</v>
+      </c>
+      <c r="J5">
+        <v>0.0009052090985651891</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.81063466666667</v>
+      </c>
+      <c r="N5">
+        <v>41.431904</v>
+      </c>
+      <c r="O5">
+        <v>0.1199889353449366</v>
+      </c>
+      <c r="P5">
+        <v>0.1199889353449366</v>
+      </c>
+      <c r="Q5">
+        <v>0.2393014704142222</v>
+      </c>
+      <c r="R5">
+        <v>2.153713233728</v>
+      </c>
+      <c r="S5">
+        <v>0.0001086150760013868</v>
+      </c>
+      <c r="T5">
+        <v>0.0001086150760013868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>1.091716</v>
+      </c>
+      <c r="H6">
+        <v>3.275148</v>
+      </c>
+      <c r="I6">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="J6">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>31.44605333333334</v>
+      </c>
+      <c r="N6">
+        <v>94.33816</v>
+      </c>
+      <c r="O6">
+        <v>0.273208187120734</v>
+      </c>
+      <c r="P6">
+        <v>0.273208187120734</v>
+      </c>
+      <c r="Q6">
+        <v>34.33015956085333</v>
+      </c>
+      <c r="R6">
+        <v>308.97143604768</v>
+      </c>
+      <c r="S6">
+        <v>0.01558190546588557</v>
+      </c>
+      <c r="T6">
+        <v>0.01558190546588557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>1.091716</v>
+      </c>
+      <c r="H7">
+        <v>3.275148</v>
+      </c>
+      <c r="I7">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="J7">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>57.80064033333333</v>
+      </c>
+      <c r="N7">
+        <v>173.401921</v>
+      </c>
+      <c r="O7">
+        <v>0.5021809252974907</v>
+      </c>
+      <c r="P7">
+        <v>0.5021809252974908</v>
+      </c>
+      <c r="Q7">
+        <v>63.10188386214532</v>
+      </c>
+      <c r="R7">
+        <v>567.9169547593079</v>
+      </c>
+      <c r="S7">
+        <v>0.02864092685955457</v>
+      </c>
+      <c r="T7">
+        <v>0.02864092685955457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.091716</v>
+      </c>
+      <c r="H8">
+        <v>3.275148</v>
+      </c>
+      <c r="I8">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="J8">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>12.04190666666667</v>
+      </c>
+      <c r="N8">
+        <v>36.12572</v>
+      </c>
+      <c r="O8">
+        <v>0.1046219522368387</v>
+      </c>
+      <c r="P8">
+        <v>0.1046219522368387</v>
+      </c>
+      <c r="Q8">
+        <v>13.14634217850667</v>
+      </c>
+      <c r="R8">
+        <v>118.31707960656</v>
+      </c>
+      <c r="S8">
+        <v>0.005966912582639428</v>
+      </c>
+      <c r="T8">
+        <v>0.005966912582639428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>15.4440249782477</v>
-      </c>
-      <c r="H5">
-        <v>15.4440249782477</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>10.8535456697054</v>
-      </c>
-      <c r="N5">
-        <v>10.8535456697054</v>
-      </c>
-      <c r="O5">
-        <v>0.09898778282803142</v>
-      </c>
-      <c r="P5">
-        <v>0.09898778282803142</v>
-      </c>
-      <c r="Q5">
-        <v>167.6224304254823</v>
-      </c>
-      <c r="R5">
-        <v>167.6224304254823</v>
-      </c>
-      <c r="S5">
-        <v>0.09898778282803142</v>
-      </c>
-      <c r="T5">
-        <v>0.09898778282803142</v>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.091716</v>
+      </c>
+      <c r="H9">
+        <v>3.275148</v>
+      </c>
+      <c r="I9">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="J9">
+        <v>0.05703308392804397</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.81063466666667</v>
+      </c>
+      <c r="N9">
+        <v>41.431904</v>
+      </c>
+      <c r="O9">
+        <v>0.1199889353449366</v>
+      </c>
+      <c r="P9">
+        <v>0.1199889353449366</v>
+      </c>
+      <c r="Q9">
+        <v>15.07729083575466</v>
+      </c>
+      <c r="R9">
+        <v>135.695617521792</v>
+      </c>
+      <c r="S9">
+        <v>0.006843339019964412</v>
+      </c>
+      <c r="T9">
+        <v>0.006843339019964412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>17.56525666666667</v>
+      </c>
+      <c r="H10">
+        <v>52.69577</v>
+      </c>
+      <c r="I10">
+        <v>0.9176386145184591</v>
+      </c>
+      <c r="J10">
+        <v>0.917638614518459</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>31.44605333333334</v>
+      </c>
+      <c r="N10">
+        <v>94.33816</v>
+      </c>
+      <c r="O10">
+        <v>0.273208187120734</v>
+      </c>
+      <c r="P10">
+        <v>0.273208187120734</v>
+      </c>
+      <c r="Q10">
+        <v>552.3579979536889</v>
+      </c>
+      <c r="R10">
+        <v>4971.2219815832</v>
+      </c>
+      <c r="S10">
+        <v>0.2507063823045703</v>
+      </c>
+      <c r="T10">
+        <v>0.2507063823045703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>17.56525666666667</v>
+      </c>
+      <c r="H11">
+        <v>52.69577</v>
+      </c>
+      <c r="I11">
+        <v>0.9176386145184591</v>
+      </c>
+      <c r="J11">
+        <v>0.917638614518459</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>57.80064033333333</v>
+      </c>
+      <c r="N11">
+        <v>173.401921</v>
+      </c>
+      <c r="O11">
+        <v>0.5021809252974907</v>
+      </c>
+      <c r="P11">
+        <v>0.5021809252974908</v>
+      </c>
+      <c r="Q11">
+        <v>1015.283082952685</v>
+      </c>
+      <c r="R11">
+        <v>9137.547746574168</v>
+      </c>
+      <c r="S11">
+        <v>0.4608206085275872</v>
+      </c>
+      <c r="T11">
+        <v>0.4608206085275872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>17.56525666666667</v>
+      </c>
+      <c r="H12">
+        <v>52.69577</v>
+      </c>
+      <c r="I12">
+        <v>0.9176386145184591</v>
+      </c>
+      <c r="J12">
+        <v>0.917638614518459</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.04190666666667</v>
+      </c>
+      <c r="N12">
+        <v>36.12572</v>
+      </c>
+      <c r="O12">
+        <v>0.1046219522368387</v>
+      </c>
+      <c r="P12">
+        <v>0.1046219522368387</v>
+      </c>
+      <c r="Q12">
+        <v>211.5191813560445</v>
+      </c>
+      <c r="R12">
+        <v>1903.6726322044</v>
+      </c>
+      <c r="S12">
+        <v>0.09600514329882903</v>
+      </c>
+      <c r="T12">
+        <v>0.09600514329882902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>17.56525666666667</v>
+      </c>
+      <c r="H13">
+        <v>52.69577</v>
+      </c>
+      <c r="I13">
+        <v>0.9176386145184591</v>
+      </c>
+      <c r="J13">
+        <v>0.917638614518459</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.81063466666667</v>
+      </c>
+      <c r="N13">
+        <v>41.431904</v>
+      </c>
+      <c r="O13">
+        <v>0.1199889353449366</v>
+      </c>
+      <c r="P13">
+        <v>0.1199889353449366</v>
+      </c>
+      <c r="Q13">
+        <v>242.5873426495644</v>
+      </c>
+      <c r="R13">
+        <v>2183.28608384608</v>
+      </c>
+      <c r="S13">
+        <v>0.1101064803874726</v>
+      </c>
+      <c r="T13">
+        <v>0.1101064803874726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.467502</v>
+      </c>
+      <c r="H14">
+        <v>1.402506</v>
+      </c>
+      <c r="I14">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="J14">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>31.44605333333334</v>
+      </c>
+      <c r="N14">
+        <v>94.33816</v>
+      </c>
+      <c r="O14">
+        <v>0.273208187120734</v>
+      </c>
+      <c r="P14">
+        <v>0.273208187120734</v>
+      </c>
+      <c r="Q14">
+        <v>14.70109282544</v>
+      </c>
+      <c r="R14">
+        <v>132.30983542896</v>
+      </c>
+      <c r="S14">
+        <v>0.006672588813494018</v>
+      </c>
+      <c r="T14">
+        <v>0.006672588813494018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.467502</v>
+      </c>
+      <c r="H15">
+        <v>1.402506</v>
+      </c>
+      <c r="I15">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="J15">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>57.80064033333333</v>
+      </c>
+      <c r="N15">
+        <v>173.401921</v>
+      </c>
+      <c r="O15">
+        <v>0.5021809252974907</v>
+      </c>
+      <c r="P15">
+        <v>0.5021809252974908</v>
+      </c>
+      <c r="Q15">
+        <v>27.021914957114</v>
+      </c>
+      <c r="R15">
+        <v>243.197234614026</v>
+      </c>
+      <c r="S15">
+        <v>0.01226481116764386</v>
+      </c>
+      <c r="T15">
+        <v>0.01226481116764386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.467502</v>
+      </c>
+      <c r="H16">
+        <v>1.402506</v>
+      </c>
+      <c r="I16">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="J16">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.04190666666667</v>
+      </c>
+      <c r="N16">
+        <v>36.12572</v>
+      </c>
+      <c r="O16">
+        <v>0.1046219522368387</v>
+      </c>
+      <c r="P16">
+        <v>0.1046219522368387</v>
+      </c>
+      <c r="Q16">
+        <v>5.629615450480001</v>
+      </c>
+      <c r="R16">
+        <v>50.66653905432</v>
+      </c>
+      <c r="S16">
+        <v>0.002555191612295778</v>
+      </c>
+      <c r="T16">
+        <v>0.002555191612295778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.467502</v>
+      </c>
+      <c r="H17">
+        <v>1.402506</v>
+      </c>
+      <c r="I17">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="J17">
+        <v>0.02442309245493188</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.81063466666667</v>
+      </c>
+      <c r="N17">
+        <v>41.431904</v>
+      </c>
+      <c r="O17">
+        <v>0.1199889353449366</v>
+      </c>
+      <c r="P17">
+        <v>0.1199889353449366</v>
+      </c>
+      <c r="Q17">
+        <v>6.456499327936</v>
+      </c>
+      <c r="R17">
+        <v>58.10849395142399</v>
+      </c>
+      <c r="S17">
+        <v>0.002930500861498231</v>
+      </c>
+      <c r="T17">
+        <v>0.002930500861498231</v>
       </c>
     </row>
   </sheetData>
